--- a/backend/web/uploads/files/EMPIRE_IMPORT.xlsx
+++ b/backend/web/uploads/files/EMPIRE_IMPORT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>NAME</t>
   </si>
@@ -54,19 +54,13 @@
     <t>BC897</t>
   </si>
   <si>
-    <t>ทดสอบ</t>
-  </si>
-  <si>
-    <t>รหัสนะ</t>
-  </si>
-  <si>
-    <t>ปปปป</t>
-  </si>
-  <si>
-    <t>ออออออ</t>
-  </si>
-  <si>
     <t>UNIT</t>
+  </si>
+  <si>
+    <t>กระเป๋า</t>
+  </si>
+  <si>
+    <t>นาฬิกา</t>
   </si>
 </sst>
 </file>
@@ -409,7 +403,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,7 +432,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -461,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -490,10 +484,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>6.9</v>
